--- a/biology/Botanique/Liste_de_spécialités_à_base_de_tomate/Liste_de_spécialités_à_base_de_tomate.xlsx
+++ b/biology/Botanique/Liste_de_spécialités_à_base_de_tomate/Liste_de_spécialités_à_base_de_tomate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tomate est une plante annuelle et un fruit très important en cuisine, entrant dans la fabrication de nombreuses recettes et consommée crue, cuite, sèche ou en jus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,22 +525,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Salades
-Champignons à la grecque
+          <t>Salades</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Champignons à la grecque
 Pico de gallo
 Salade caprese
 Salade chopska
-Salade grecque
-Soupes
-Gaspacho
+Salade grecque</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plats contenant de la tomate</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Soupes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gaspacho
 Salmorejo
-Soupe de tomate
-Tartes
-Pizza (tarte à la tomate d'origine italienne).
+Soupe de tomate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plats contenant de la tomate</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tartes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pizza (tarte à la tomate d'origine italienne).
 Pichade
-Tarte fine à la tomate et moutarde
-Autres
-Beignets de tomates vertes
+Tarte fine à la tomate et moutarde</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plats contenant de la tomate</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Beignets de tomates vertes
 Chakchouka
 Clafoutis tomate cerise
 Confiture de tomate verte
@@ -541,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sauces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Capuliatu, préparation culinaire traditionnelle sicilienne à base de tomates séchées.
 Ketchup (sauce tomate sucrée).
@@ -579,31 +700,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_spécialités_à_base_de_tomate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_sp%C3%A9cialit%C3%A9s_%C3%A0_base_de_tomate</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Boissons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bloody Mary
 César (cocktail)
